--- a/conception/organisation.xlsx
+++ b/conception/organisation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="642" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="642" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Organisation" sheetId="1" r:id="rId1"/>
@@ -248,18 +248,9 @@
     <t>N:XX°XX'XXXX"_E:XX°XX'XXXX</t>
   </si>
   <si>
-    <t>XXX,XX</t>
-  </si>
-  <si>
-    <t>Prix du billet d'entrée, null si gratuit</t>
-  </si>
-  <si>
     <t>50 caractères</t>
   </si>
   <si>
-    <t>500 caractères</t>
-  </si>
-  <si>
     <t>Salle.description</t>
   </si>
   <si>
@@ -279,13 +270,22 @@
   </si>
   <si>
     <t>idSalle</t>
+  </si>
+  <si>
+    <t>XXXXX</t>
+  </si>
+  <si>
+    <t>Entier, null si gratuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     API node js</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +368,13 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -525,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -690,6 +697,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,30 +1245,30 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+    <row r="8" spans="1:25" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="7">
-        <v>43717</v>
+        <v>43728</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -1262,7 +1278,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -1293,7 +1309,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -1307,7 +1323,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="6"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="1"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="5"/>
@@ -1324,24 +1340,24 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="6"/>
       <c r="O11" s="1"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="5"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="7">
@@ -1354,12 +1370,14 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="10"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1368,36 +1386,36 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="7"/>
+      <c r="T12" s="7">
+        <v>43717</v>
+      </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
@@ -1409,31 +1427,29 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+    <row r="14" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="5"/>
+      <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="7">
-        <v>43717</v>
-      </c>
+      <c r="T14" s="7"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1442,27 +1458,29 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="6"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="7"/>
+      <c r="T15" s="7">
+        <v>43717</v>
+      </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -1470,12 +1488,14 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1496,14 +1516,12 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1518,23 +1536,23 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="1"/>
+      <c r="T17" s="7"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
+    <row r="18" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1543,13 +1561,11 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="7">
-        <v>43720</v>
-      </c>
+      <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -1558,20 +1574,20 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="5"/>
@@ -1579,7 +1595,7 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="7">
-        <v>43717</v>
+        <v>43720</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -1589,7 +1605,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
@@ -1597,12 +1613,12 @@
       <c r="E20" s="40"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="5"/>
@@ -1619,29 +1635,29 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="A21" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="7">
-        <v>43714</v>
+        <v>43717</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -1650,40 +1666,42 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="A22" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="7"/>
+      <c r="T22" s="7">
+        <v>43714</v>
+      </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1698,25 +1716,25 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="1"/>
+      <c r="T23" s="7"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+    <row r="24" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1727,9 +1745,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="7">
-        <v>43717</v>
-      </c>
+      <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -1737,26 +1753,30 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="42" t="s">
+        <v>23</v>
+      </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="7"/>
+      <c r="T25" s="7">
+        <v>43717</v>
+      </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
@@ -1764,21 +1784,21 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -1817,39 +1837,67 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
     <mergeCell ref="T1:V2"/>
     <mergeCell ref="W1:Y2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A22:E22"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A15:E15"/>
     <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A16:E16"/>
     <mergeCell ref="F1:O2"/>
     <mergeCell ref="P1:R2"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A23:E23"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1860,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,7 +1952,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
@@ -2060,10 +2108,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="58"/>
@@ -2078,7 +2126,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="58"/>
       <c r="E15" s="58"/>
@@ -2119,7 +2167,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D18" s="58"/>
       <c r="E18" s="58"/>
@@ -2155,8 +2203,8 @@
       <c r="B21" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="58" t="s">
-        <v>75</v>
+      <c r="C21" s="58">
+        <v>0</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
@@ -2176,7 +2224,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B23" s="62"/>
       <c r="C23" s="58"/>
@@ -2202,7 +2250,7 @@
     </row>
     <row r="25" spans="1:7" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" s="61" t="s">
         <v>59</v>
@@ -2288,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,7 +2353,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>49</v>
@@ -2369,7 +2417,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,19 +2433,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2466,7 +2514,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>43</v>
